--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
   </si>
   <si>
     <t>smsCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,13 +466,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -494,25 +487,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -525,14 +518,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" s="1">
+        <v>18683917194</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>4.3674212173748101E+18</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -541,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>1903172</v>
@@ -554,7 +547,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,14 @@
     <rPh sb="8" eb="9">
       <t>cheng g</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18683917194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4367421217374810000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +475,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -518,14 +526,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>18683917194</v>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>4.3674212173748101E+18</v>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E2">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12630" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -484,7 +484,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/DebtByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12630" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,9 +33,6 @@
   <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
   </si>
   <si>
     <t>password</t>
@@ -111,11 +108,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18683917194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4367421217374810000</t>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -489,60 +494,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1903172</v>
@@ -551,11 +556,11 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -588,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
